--- a/biology/Zoologie/Ctenotus_brooksi/Ctenotus_brooksi.xlsx
+++ b/biology/Zoologie/Ctenotus_brooksi/Ctenotus_brooksi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ctenotus brooksi est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ctenotus brooksi est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Australie-Occidentale, dans le Territoire du Nord, au Queensland, au Victoria, en Nouvelle-Galles du Sud et en Australie-Méridionale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Australie-Occidentale, dans le Territoire du Nord, au Queensland, au Victoria, en Nouvelle-Galles du Sud et en Australie-Méridionale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (22 décembre 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (22 décembre 2015) :
 Ctenotus brooksi aranda Storr, 1970
 Ctenotus brooksi brooksi (Loveridge, 1933)
 Ctenotus brooksi iridis Storr, 1981</t>
@@ -575,9 +591,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sous-espèces Ctenotus brooksi euclae[3] et Ctenotus brooksi taeniatus[4] ont été élevées au rang d'espèce.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sous-espèces Ctenotus brooksi euclae et Ctenotus brooksi taeniatus ont été élevées au rang d'espèce.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Winthrop Sprague Brooks (1887-1965)[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Winthrop Sprague Brooks (1887-1965).
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Loveridge, 1933 : New scincid lizards of the genera Sphenomorphus, Rhodona and Lygosoma from Australia. Occasional papers of the Boston Society of Natural History, vol. 8, p. 95-100 (texte intégral).
 Storr, 1970 : The genus Ctenotus (Lacertilia: Scincidae) in the Northern Territory. Journal and proceedings of the Royal Society of Western Australia, vol. 52, p. 97-108.
